--- a/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
+++ b/Descargas/R15_12º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Agosto.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B27" s="65">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="B50" s="65">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="51">
